--- a/Cyclic Executive.xlsx
+++ b/Cyclic Executive.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan Baker\Documents\EmbeddedSoftware-Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD2A5B1-F708-41E6-B49B-1FA9F532A1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0AFB0B-E69A-409C-A8FB-8E3F5BC587F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Pi:</t>
   </si>
@@ -76,19 +77,58 @@
   <si>
     <t>Frame 0 Iteration 2</t>
   </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +147,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -116,11 +168,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -130,6 +309,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView zoomScale="55" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -628,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B54" si="0">A5*4</f>
+        <f t="shared" ref="B5:B53" si="0">A5*4</f>
         <v>4</v>
       </c>
       <c r="C5" s="4">
@@ -1788,4 +2018,1635 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398EDADD-427B-4EAD-B2A8-8CE1FC485495}">
+  <dimension ref="B2:BB13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AK34" sqref="AK34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="54" width="3.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8">
+        <v>8</v>
+      </c>
+      <c r="M2" s="8">
+        <v>9</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10</v>
+      </c>
+      <c r="O2" s="8">
+        <v>11</v>
+      </c>
+      <c r="P2" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>13</v>
+      </c>
+      <c r="R2" s="8">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8">
+        <v>16</v>
+      </c>
+      <c r="U2" s="8">
+        <v>17</v>
+      </c>
+      <c r="V2" s="8">
+        <v>18</v>
+      </c>
+      <c r="W2" s="8">
+        <v>19</v>
+      </c>
+      <c r="X2" s="8">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>32</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>34</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>36</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>38</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>39</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>41</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>43</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>44</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="9">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>48</v>
+      </c>
+      <c r="BA2" s="10">
+        <v>49</v>
+      </c>
+      <c r="BB2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13">
+        <v>1</v>
+      </c>
+      <c r="S3" s="13">
+        <v>1</v>
+      </c>
+      <c r="T3" s="13">
+        <v>1</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1</v>
+      </c>
+      <c r="V3" s="13">
+        <v>1</v>
+      </c>
+      <c r="W3" s="13">
+        <v>1</v>
+      </c>
+      <c r="X3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="15">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>1</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1</v>
+      </c>
+      <c r="S4" s="16">
+        <v>1</v>
+      </c>
+      <c r="T4" s="16">
+        <v>1</v>
+      </c>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="16">
+        <v>1</v>
+      </c>
+      <c r="W4" s="16">
+        <v>1</v>
+      </c>
+      <c r="X4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="16">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="18">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16">
+        <v>1</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13">
+        <v>1</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16">
+        <v>1</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16">
+        <v>1</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="16">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13">
+        <v>1</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
+        <v>1</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:54" x14ac:dyDescent="0.35">
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8">
+        <v>28</v>
+      </c>
+      <c r="L13" s="8">
+        <v>32</v>
+      </c>
+      <c r="M13" s="8">
+        <v>36</v>
+      </c>
+      <c r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8">
+        <v>44</v>
+      </c>
+      <c r="P13" s="8">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>52</v>
+      </c>
+      <c r="R13" s="8">
+        <v>56</v>
+      </c>
+      <c r="S13" s="8">
+        <v>60</v>
+      </c>
+      <c r="T13" s="8">
+        <v>64</v>
+      </c>
+      <c r="U13" s="8">
+        <v>68</v>
+      </c>
+      <c r="V13" s="8">
+        <v>72</v>
+      </c>
+      <c r="W13" s="8">
+        <v>76</v>
+      </c>
+      <c r="X13" s="8">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>84</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>88</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>92</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>96</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>100</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>104</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>108</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>112</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>116</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>120</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>124</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>128</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>132</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>136</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>140</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>144</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>148</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>152</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>156</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>160</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>164</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>168</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>172</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>176</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>180</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>184</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>188</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>192</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>196</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5:BA5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:BA6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:BA3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:BA4">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:BA7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:BA8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:BA9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:BA11">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:BA10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:BA12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB12">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>